--- a/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -249,7 +249,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>保険医療機関番号７桁</t>
+    <t>保険医療機関番号７桁【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁。Identifier型の拡張
